--- a/resources/experiment 1/predictions/single/LinearRegression/average time/Angina.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/average time/Angina.xlsx
@@ -474,7 +474,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23.58581604878956</v>
+        <v>23.58581604878955</v>
       </c>
       <c r="B4" t="n">
         <v>19.92266541271009</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27.94828893467457</v>
+        <v>27.94828893467456</v>
       </c>
       <c r="B5" t="n">
         <v>23.64281193973713</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.892329603788413</v>
+        <v>7.892329603788422</v>
       </c>
       <c r="B8" t="n">
-        <v>3.843870241100484</v>
+        <v>3.843870241100488</v>
       </c>
       <c r="C8" t="n">
         <v>12.98707319901897</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23.44613479472184</v>
+        <v>23.44613479472183</v>
       </c>
       <c r="B9" t="n">
         <v>19.03913758308568</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.022756064048403</v>
+        <v>9.022756064048412</v>
       </c>
       <c r="B10" t="n">
-        <v>4.592767504900028</v>
+        <v>4.592767504900031</v>
       </c>
       <c r="C10" t="n">
         <v>14.59644949061411</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>24.22336985146933</v>
+        <v>24.22336985146932</v>
       </c>
       <c r="B12" t="n">
         <v>18.79095676169256</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14.30214526074863</v>
+        <v>14.30214526074864</v>
       </c>
       <c r="B13" t="n">
-        <v>8.948261040158362</v>
+        <v>8.948261040158364</v>
       </c>
       <c r="C13" t="n">
         <v>20.91117927424884</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15.48684891529844</v>
+        <v>15.48684891529845</v>
       </c>
       <c r="B14" t="n">
         <v>10.53526603135502</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>29.95292967586083</v>
+        <v>29.95292967586082</v>
       </c>
       <c r="B15" t="n">
         <v>25.00434616065431</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>26.36769184672331</v>
+        <v>26.3676918467233</v>
       </c>
       <c r="B20" t="n">
         <v>21.03601881223416</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>27.68050159093998</v>
+        <v>27.68050159093997</v>
       </c>
       <c r="B21" t="n">
-        <v>22.69115395677177</v>
+        <v>22.69115395677176</v>
       </c>
       <c r="C21" t="n">
-        <v>32.82564995161331</v>
+        <v>32.82564995161332</v>
       </c>
     </row>
     <row r="22">
@@ -675,7 +675,7 @@
         <v>10.06777846453049</v>
       </c>
       <c r="B22" t="n">
-        <v>5.296244666472273</v>
+        <v>5.296244666472274</v>
       </c>
       <c r="C22" t="n">
         <v>16.08103973119806</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27.50969347138416</v>
+        <v>27.50969347138415</v>
       </c>
       <c r="B26" t="n">
         <v>22.60031375231717</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>19.02938471454701</v>
+        <v>19.029384714547</v>
       </c>
       <c r="B28" t="n">
         <v>14.48088332866153</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31.78676229749126</v>
+        <v>31.78676229749125</v>
       </c>
       <c r="B29" t="n">
-        <v>26.27504017711691</v>
+        <v>26.2750401771169</v>
       </c>
       <c r="C29" t="n">
         <v>37.46861041814729</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14.35642245503845</v>
+        <v>14.35642245503846</v>
       </c>
       <c r="B31" t="n">
-        <v>9.786368767555475</v>
+        <v>9.786368767555476</v>
       </c>
       <c r="C31" t="n">
         <v>19.80295785496382</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11.3378861788582</v>
+        <v>11.33788617885821</v>
       </c>
       <c r="B32" t="n">
-        <v>6.92866975989623</v>
+        <v>6.928669759896231</v>
       </c>
       <c r="C32" t="n">
         <v>16.70698065451939</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>25.45077553590809</v>
+        <v>25.45077553590808</v>
       </c>
       <c r="B35" t="n">
         <v>20.40067180400287</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>28.5974179017552</v>
+        <v>28.59741790175519</v>
       </c>
       <c r="B37" t="n">
         <v>23.32650096500306</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17.36338356681783</v>
+        <v>17.36338356681784</v>
       </c>
       <c r="B38" t="n">
         <v>11.82867009893126</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>25.59045678997582</v>
+        <v>25.59045678997581</v>
       </c>
       <c r="B40" t="n">
         <v>21.28419963362728</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>13.35410208444532</v>
+        <v>13.35410208444533</v>
       </c>
       <c r="B46" t="n">
-        <v>9.10560165709688</v>
+        <v>9.105601657096882</v>
       </c>
       <c r="C46" t="n">
         <v>18.38076063988547</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10.94199274545675</v>
+        <v>10.94199274545676</v>
       </c>
       <c r="B47" t="n">
-        <v>5.908881623589917</v>
+        <v>5.90888162358992</v>
       </c>
       <c r="C47" t="n">
         <v>17.31605786975961</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>24.71624250904955</v>
+        <v>24.71624250904954</v>
       </c>
       <c r="B49" t="n">
         <v>20.67156267650963</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>28.68282196153311</v>
+        <v>28.6828219615331</v>
       </c>
       <c r="B50" t="n">
         <v>23.37192106723036</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>25.85824413371041</v>
+        <v>25.8582441337104</v>
       </c>
       <c r="B51" t="n">
         <v>22.23585761659264</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>12.52258983340801</v>
+        <v>12.52258983340802</v>
       </c>
       <c r="B52" t="n">
         <v>8.515674751092886</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>29.86752561608292</v>
+        <v>29.86752561608291</v>
       </c>
       <c r="B54" t="n">
-        <v>24.95892605842702</v>
+        <v>24.95892605842701</v>
       </c>
       <c r="C54" t="n">
         <v>34.7490020390018</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27.63779956105103</v>
+        <v>27.63779956105102</v>
       </c>
       <c r="B55" t="n">
         <v>22.66844390565812</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>14.56993260448322</v>
+        <v>14.56993260448323</v>
       </c>
       <c r="B56" t="n">
         <v>9.899919023123726</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11.29518414896925</v>
+        <v>11.29518414896926</v>
       </c>
       <c r="B57" t="n">
-        <v>6.905959708782579</v>
+        <v>6.90595970878258</v>
       </c>
       <c r="C57" t="n">
-        <v>16.6445876290138</v>
+        <v>16.64458762901379</v>
       </c>
     </row>
     <row r="58">
@@ -1079,7 +1079,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>16.62885053995929</v>
+        <v>16.6288505399593</v>
       </c>
       <c r="B59" t="n">
         <v>12.09956097143803</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>30.912548016565</v>
+        <v>30.91254801656499</v>
       </c>
       <c r="B60" t="n">
         <v>25.66240321999926</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>18.49381002707782</v>
+        <v>18.49381002707783</v>
       </c>
       <c r="B63" t="n">
         <v>12.5775673627308</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>30.86984598667604</v>
+        <v>30.86984598667603</v>
       </c>
       <c r="B64" t="n">
         <v>25.63969316888561</v>
@@ -1148,7 +1148,7 @@
         <v>10.25016174848717</v>
       </c>
       <c r="B65" t="n">
-        <v>6.202482547210336</v>
+        <v>6.202482547210337</v>
       </c>
       <c r="C65" t="n">
         <v>15.15999738842985</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>26.72088325023581</v>
+        <v>26.7208832502358</v>
       </c>
       <c r="B68" t="n">
         <v>22.03309689742682</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.07009883512361</v>
+        <v>11.07009883512362</v>
       </c>
       <c r="B69" t="n">
-        <v>5.977011776930867</v>
+        <v>5.977011776930869</v>
       </c>
       <c r="C69" t="n">
         <v>17.50323694627641</v>
@@ -1225,10 +1225,10 @@
         <v>21.21640873968994</v>
       </c>
       <c r="B72" t="n">
-        <v>16.74865543031678</v>
+        <v>16.74865543031677</v>
       </c>
       <c r="C72" t="n">
-        <v>26.00976529566846</v>
+        <v>26.00976529566847</v>
       </c>
     </row>
   </sheetData>
